--- a/Baza_Projekt.xlsx
+++ b/Baza_Projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Manca\Documents\Faks\2.stopnja\2.letnik\Osnove podatkovnih baz\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jurij\Desktop\FMF\OPB\Projekt_OPB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0325B4-BE9B-45D9-A0B6-B5D625B9CCE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA899C-E8CF-457C-8645-B35E7EAB1FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{514FD68D-D10E-4AF5-A425-6347D1AF0874}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{514FD68D-D10E-4AF5-A425-6347D1AF0874}"/>
   </bookViews>
   <sheets>
     <sheet name="Živali" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="762">
   <si>
     <t>Šifra oglasa</t>
   </si>
@@ -1313,13 +1313,1024 @@
   </si>
   <si>
     <t>Hrvaška</t>
+  </si>
+  <si>
+    <t>Goveda</t>
+  </si>
+  <si>
+    <t>Konji</t>
+  </si>
+  <si>
+    <t>Osli</t>
+  </si>
+  <si>
+    <t>Perutnina</t>
+  </si>
+  <si>
+    <t>Prašiči</t>
+  </si>
+  <si>
+    <t>Litija</t>
+  </si>
+  <si>
+    <t>Lesično</t>
+  </si>
+  <si>
+    <t>Kostel</t>
+  </si>
+  <si>
+    <t>Trebnje</t>
+  </si>
+  <si>
+    <t>Bizeljsko</t>
+  </si>
+  <si>
+    <t>Posavska</t>
+  </si>
+  <si>
+    <t>Ribnica na Pohorju</t>
+  </si>
+  <si>
+    <t>Cerknica</t>
+  </si>
+  <si>
+    <t>Primorsko-notranjska</t>
+  </si>
+  <si>
+    <t>Črnomelj</t>
+  </si>
+  <si>
+    <t>Vitanje</t>
+  </si>
+  <si>
+    <t>Cerklje na Gorenjskem</t>
+  </si>
+  <si>
+    <t>Pišece</t>
+  </si>
+  <si>
+    <t>Šentjernej</t>
+  </si>
+  <si>
+    <t>Novo mesto</t>
+  </si>
+  <si>
+    <t>Lenart v Slovenskih goricah</t>
+  </si>
+  <si>
+    <t>Voličina</t>
+  </si>
+  <si>
+    <t>Bodonci</t>
+  </si>
+  <si>
+    <t>Moravče</t>
+  </si>
+  <si>
+    <t>Gornji Grad</t>
+  </si>
+  <si>
+    <t>Veliki gaber</t>
+  </si>
+  <si>
+    <t>Senovo</t>
+  </si>
+  <si>
+    <t>Preddvor</t>
+  </si>
+  <si>
+    <t>Adlešiči</t>
+  </si>
+  <si>
+    <t>Postojna</t>
+  </si>
+  <si>
+    <t>Sevnica</t>
+  </si>
+  <si>
+    <t>Markovci</t>
+  </si>
+  <si>
+    <t>Radovljica</t>
+  </si>
+  <si>
+    <t>Kočevska reka</t>
+  </si>
+  <si>
+    <t>Metlika</t>
+  </si>
+  <si>
+    <t>Podčetrtek</t>
+  </si>
+  <si>
+    <t>Krško</t>
+  </si>
+  <si>
+    <t>Rogaška Slatina</t>
+  </si>
+  <si>
+    <t>Šentvid pri Stični</t>
+  </si>
+  <si>
+    <t>Slovenske Konjice</t>
+  </si>
+  <si>
+    <t>Kranj</t>
+  </si>
+  <si>
+    <t>Starše</t>
+  </si>
+  <si>
+    <t>Cirkulane</t>
+  </si>
+  <si>
+    <t>Ajdovščina</t>
+  </si>
+  <si>
+    <t>Duplek</t>
+  </si>
+  <si>
+    <t>Raka</t>
+  </si>
+  <si>
+    <t>Sv. Jurij ob Ščavnici</t>
+  </si>
+  <si>
+    <t>Grobelno</t>
+  </si>
+  <si>
+    <t>Kapele</t>
+  </si>
+  <si>
+    <t>govedo</t>
+  </si>
+  <si>
+    <t>poni</t>
+  </si>
+  <si>
+    <t>konj</t>
+  </si>
+  <si>
+    <t>osel</t>
+  </si>
+  <si>
+    <t>nandu</t>
+  </si>
+  <si>
+    <t>kokoš</t>
+  </si>
+  <si>
+    <t>gos</t>
+  </si>
+  <si>
+    <t>raca</t>
+  </si>
+  <si>
+    <t>prašič</t>
+  </si>
+  <si>
+    <t>lus1</t>
+  </si>
+  <si>
+    <t>040 756 807</t>
+  </si>
+  <si>
+    <t>30.4.2007</t>
+  </si>
+  <si>
+    <t>lahovec</t>
+  </si>
+  <si>
+    <t>+386 41 518 648</t>
+  </si>
+  <si>
+    <t>10.6.2020</t>
+  </si>
+  <si>
+    <t>KmetijaStadler</t>
+  </si>
+  <si>
+    <t>+386 41 866 556</t>
+  </si>
+  <si>
+    <t>blazko69</t>
+  </si>
+  <si>
+    <t>041 834 773</t>
+  </si>
+  <si>
+    <t>22.5.2018</t>
+  </si>
+  <si>
+    <t>mojmaliavto</t>
+  </si>
+  <si>
+    <t>+386 41 618 837</t>
+  </si>
+  <si>
+    <t>26.3.2013</t>
+  </si>
+  <si>
+    <t>Trebje</t>
+  </si>
+  <si>
+    <t>joeze</t>
+  </si>
+  <si>
+    <t>031 486 076</t>
+  </si>
+  <si>
+    <t>15.4.2013</t>
+  </si>
+  <si>
+    <t>bolhamatej</t>
+  </si>
+  <si>
+    <t>+386 40 256 966</t>
+  </si>
+  <si>
+    <t>23.1.2011</t>
+  </si>
+  <si>
+    <t>majp3</t>
+  </si>
+  <si>
+    <t>068 681 769</t>
+  </si>
+  <si>
+    <t>17.3.2019</t>
+  </si>
+  <si>
+    <t>stanesustarsic</t>
+  </si>
+  <si>
+    <t>041 538 651</t>
+  </si>
+  <si>
+    <t>3.8.2019</t>
+  </si>
+  <si>
+    <t>carman17</t>
+  </si>
+  <si>
+    <t>031 417 221</t>
+  </si>
+  <si>
+    <t>13.11.2018</t>
+  </si>
+  <si>
+    <t>stefanklanfar</t>
+  </si>
+  <si>
+    <t>+386 30 758 788</t>
+  </si>
+  <si>
+    <t>18.1.2014</t>
+  </si>
+  <si>
+    <t>atila2</t>
+  </si>
+  <si>
+    <t>+386 51 612 456</t>
+  </si>
+  <si>
+    <t>7.12.2004</t>
+  </si>
+  <si>
+    <t>konj31</t>
+  </si>
+  <si>
+    <t>+386 70 621 316</t>
+  </si>
+  <si>
+    <t>25.5.2006</t>
+  </si>
+  <si>
+    <t>apriliars501</t>
+  </si>
+  <si>
+    <t>+386 31 484 256</t>
+  </si>
+  <si>
+    <t>22.6.2008</t>
+  </si>
+  <si>
+    <t>14franci</t>
+  </si>
+  <si>
+    <t>041 902 294</t>
+  </si>
+  <si>
+    <t>28.9.2015</t>
+  </si>
+  <si>
+    <t>timimarin</t>
+  </si>
+  <si>
+    <t>+386 31 299 737</t>
+  </si>
+  <si>
+    <t>20.1.2013</t>
+  </si>
+  <si>
+    <t>ivang67</t>
+  </si>
+  <si>
+    <t>+386 41 340 446</t>
+  </si>
+  <si>
+    <t>19.1.2011</t>
+  </si>
+  <si>
+    <t>hidrorez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +386 51 651 887</t>
+  </si>
+  <si>
+    <t>25.8.2005</t>
+  </si>
+  <si>
+    <t>Sasab2020</t>
+  </si>
+  <si>
+    <t>+386 41 430 315</t>
+  </si>
+  <si>
+    <t>27.4.2020</t>
+  </si>
+  <si>
+    <t>lobadar1</t>
+  </si>
+  <si>
+    <t>031 840 425</t>
+  </si>
+  <si>
+    <t>31.5.2007</t>
+  </si>
+  <si>
+    <t>stefankrc</t>
+  </si>
+  <si>
+    <t>041 651 085</t>
+  </si>
+  <si>
+    <t>27.4.2017</t>
+  </si>
+  <si>
+    <t>oglas02</t>
+  </si>
+  <si>
+    <t>041 725 885</t>
+  </si>
+  <si>
+    <t>14.2.2010</t>
+  </si>
+  <si>
+    <t>kosa1231</t>
+  </si>
+  <si>
+    <t>+386 41 768 593</t>
+  </si>
+  <si>
+    <t>26.9.2016</t>
+  </si>
+  <si>
+    <t>novuporabnik21</t>
+  </si>
+  <si>
+    <t>+386 68 157 866</t>
+  </si>
+  <si>
+    <t>4.10.2020</t>
+  </si>
+  <si>
+    <t>nadacrnic</t>
+  </si>
+  <si>
+    <t>040 655 449</t>
+  </si>
+  <si>
+    <t>13.12.2015</t>
+  </si>
+  <si>
+    <t>izanskacesta</t>
+  </si>
+  <si>
+    <t>+386 40 854 196</t>
+  </si>
+  <si>
+    <t>13.8.2018</t>
+  </si>
+  <si>
+    <t>tinabajec11</t>
+  </si>
+  <si>
+    <t>+386 70 754 808</t>
+  </si>
+  <si>
+    <t>17.3.2016</t>
+  </si>
+  <si>
+    <t>brunrac</t>
+  </si>
+  <si>
+    <t>031 554 238</t>
+  </si>
+  <si>
+    <t>30.7.2014</t>
+  </si>
+  <si>
+    <t>klenovsekkatarina</t>
+  </si>
+  <si>
+    <t>+386 41 667 996</t>
+  </si>
+  <si>
+    <t>29.1.2008</t>
+  </si>
+  <si>
+    <t>krajncic-mateja</t>
+  </si>
+  <si>
+    <t>+386 51 424 600</t>
+  </si>
+  <si>
+    <t>13.2.2017</t>
+  </si>
+  <si>
+    <t>anja1omerza</t>
+  </si>
+  <si>
+    <t>+386 31 795 846</t>
+  </si>
+  <si>
+    <t>14.1.2013</t>
+  </si>
+  <si>
+    <t>srecokopac</t>
+  </si>
+  <si>
+    <t>041 626 670</t>
+  </si>
+  <si>
+    <t>28.11.2012</t>
+  </si>
+  <si>
+    <t>odkupprodaja20</t>
+  </si>
+  <si>
+    <t>069 631 836</t>
+  </si>
+  <si>
+    <t>3.6.2017</t>
+  </si>
+  <si>
+    <t>milena910</t>
+  </si>
+  <si>
+    <t>040 888 200</t>
+  </si>
+  <si>
+    <t>7.4.2019</t>
+  </si>
+  <si>
+    <t>som6</t>
+  </si>
+  <si>
+    <t>041 672 401</t>
+  </si>
+  <si>
+    <t>15.10.2007</t>
+  </si>
+  <si>
+    <t>jkozole</t>
+  </si>
+  <si>
+    <t>040 502 301</t>
+  </si>
+  <si>
+    <t>12.6.2012</t>
+  </si>
+  <si>
+    <t>Lukajaversek</t>
+  </si>
+  <si>
+    <t>+386 41 552 580</t>
+  </si>
+  <si>
+    <t>dejandh</t>
+  </si>
+  <si>
+    <t>+386 40 435 269</t>
+  </si>
+  <si>
+    <t>18.3.2007</t>
+  </si>
+  <si>
+    <t>fg38</t>
+  </si>
+  <si>
+    <t>+386 41 326 554</t>
+  </si>
+  <si>
+    <t>9.6.2009</t>
+  </si>
+  <si>
+    <t>vanja2803</t>
+  </si>
+  <si>
+    <t>+386 25 821 401</t>
+  </si>
+  <si>
+    <t>9.5.2012</t>
+  </si>
+  <si>
+    <t>mladipohodnik</t>
+  </si>
+  <si>
+    <t>+386 70 545 481</t>
+  </si>
+  <si>
+    <t>30.5.2012</t>
+  </si>
+  <si>
+    <t>agro70</t>
+  </si>
+  <si>
+    <t>040 531 246</t>
+  </si>
+  <si>
+    <t>16.2.2015</t>
+  </si>
+  <si>
+    <t>ANTON KOLEDNIK S.P.</t>
+  </si>
+  <si>
+    <t>+386 41 428 644</t>
+  </si>
+  <si>
+    <t>18.3.2018</t>
+  </si>
+  <si>
+    <t>ukmar25</t>
+  </si>
+  <si>
+    <t>+386 40 843 252</t>
+  </si>
+  <si>
+    <t>7.7.2016</t>
+  </si>
+  <si>
+    <t>suziy</t>
+  </si>
+  <si>
+    <t>+386 51 602 791</t>
+  </si>
+  <si>
+    <t>5.12.2010</t>
+  </si>
+  <si>
+    <t>nada2005</t>
+  </si>
+  <si>
+    <t>+386 41 797 052</t>
+  </si>
+  <si>
+    <t>3.4.2019</t>
+  </si>
+  <si>
+    <t>bernardkamalensek</t>
+  </si>
+  <si>
+    <t>031 541 900</t>
+  </si>
+  <si>
+    <t>29.6.2012</t>
+  </si>
+  <si>
+    <t>slavickmetija</t>
+  </si>
+  <si>
+    <t>+386 41 721 138</t>
+  </si>
+  <si>
+    <t>13.12.2020</t>
+  </si>
+  <si>
+    <t>rok49</t>
+  </si>
+  <si>
+    <t>+386 41 354 805</t>
+  </si>
+  <si>
+    <t>5.5.2008</t>
+  </si>
+  <si>
+    <t>041-817-296</t>
+  </si>
+  <si>
+    <t>18.2.2013</t>
+  </si>
+  <si>
+    <t>sostaricsebastjan</t>
+  </si>
+  <si>
+    <t>+386 31 686 354</t>
+  </si>
+  <si>
+    <t>22.3.2008</t>
+  </si>
+  <si>
+    <t>a-koc</t>
+  </si>
+  <si>
+    <t>041 228 773</t>
+  </si>
+  <si>
+    <t>19.1.2018</t>
+  </si>
+  <si>
+    <t>bacek97</t>
+  </si>
+  <si>
+    <t>031 274 030</t>
+  </si>
+  <si>
+    <t>11.3.2018</t>
+  </si>
+  <si>
+    <t>vladosepec</t>
+  </si>
+  <si>
+    <t>+386 41 843 199</t>
+  </si>
+  <si>
+    <t>20.10.2012</t>
+  </si>
+  <si>
+    <t>Telica breja</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>1150€</t>
+  </si>
+  <si>
+    <t>21 mesecev</t>
+  </si>
+  <si>
+    <t>škotsko govedo breje krave s teleti</t>
+  </si>
+  <si>
+    <t>Škotsko</t>
+  </si>
+  <si>
+    <t>lahkovec</t>
+  </si>
+  <si>
+    <t>Prodamo teličko in bikca pasme Aberdeen Angus</t>
+  </si>
+  <si>
+    <t>Aberdeen angus</t>
+  </si>
+  <si>
+    <t>8 mesecev</t>
+  </si>
+  <si>
+    <t>Bikec cikaste pasme</t>
+  </si>
+  <si>
+    <t>Ciklasta</t>
+  </si>
+  <si>
+    <t>Telička za rejo</t>
+  </si>
+  <si>
+    <t>ČB/BBP</t>
+  </si>
+  <si>
+    <t>560€</t>
+  </si>
+  <si>
+    <t>Bikec simentalec</t>
+  </si>
+  <si>
+    <t>simentalno</t>
+  </si>
+  <si>
+    <t>2 tedna</t>
+  </si>
+  <si>
+    <t>Limuzin bikec</t>
+  </si>
+  <si>
+    <t>limuzin</t>
+  </si>
+  <si>
+    <t>800€</t>
+  </si>
+  <si>
+    <t>Telice LIM</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>1950€</t>
+  </si>
+  <si>
+    <t>Bikci LSxCHA in LSxLIM</t>
+  </si>
+  <si>
+    <t>Prodam teličko pasme RJ</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>1 teden</t>
+  </si>
+  <si>
+    <t>Poni kobila starost 4leta brja kotila bo maja meseca</t>
+  </si>
+  <si>
+    <t>4 leta</t>
+  </si>
+  <si>
+    <t>2.4.2021</t>
+  </si>
+  <si>
+    <t>šetlandski poni</t>
+  </si>
+  <si>
+    <t>plemenski</t>
+  </si>
+  <si>
+    <t>Poni kobilca</t>
+  </si>
+  <si>
+    <t>670€</t>
+  </si>
+  <si>
+    <t>1.4.2021</t>
+  </si>
+  <si>
+    <t>Prodamo kobilo SHL z žrebetom</t>
+  </si>
+  <si>
+    <t>SHL</t>
+  </si>
+  <si>
+    <t>2200€</t>
+  </si>
+  <si>
+    <t>Prodam ŽREBČKA PAINT</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>1200€</t>
+  </si>
+  <si>
+    <t>Kupim konje in žrebeta</t>
+  </si>
+  <si>
+    <t>650€</t>
+  </si>
+  <si>
+    <t>Posavka rodovniška 3 leta, prodam ali menjam Prekmurje</t>
+  </si>
+  <si>
+    <t>Posavka</t>
+  </si>
+  <si>
+    <t>3 leta</t>
+  </si>
+  <si>
+    <t>31.3.2021</t>
+  </si>
+  <si>
+    <t>PRODAM PONIJA</t>
+  </si>
+  <si>
+    <t>Prodam žrebca</t>
+  </si>
+  <si>
+    <t>30.3.2021</t>
+  </si>
+  <si>
+    <t>Dalmatinski reks / rex</t>
+  </si>
+  <si>
+    <t>Dalmatinska reksa</t>
+  </si>
+  <si>
+    <t>Zajci</t>
+  </si>
+  <si>
+    <t>Mešanci pasme ovnač in nemški lisec</t>
+  </si>
+  <si>
+    <t>Stari 4 mesece</t>
+  </si>
+  <si>
+    <t>12€</t>
+  </si>
+  <si>
+    <t>Zajci (kunci, mešanci, mladiči)</t>
+  </si>
+  <si>
+    <t>Mladi ovnač</t>
+  </si>
+  <si>
+    <t>ovnač</t>
+  </si>
+  <si>
+    <t>ZAJČKI ZA REJO STARI 2 MESECA 7 € KOM</t>
+  </si>
+  <si>
+    <t>7€</t>
+  </si>
+  <si>
+    <t>Prodam zajce</t>
+  </si>
+  <si>
+    <t>PRODAM MLADE ZAJCE NEMŠKI LISEC</t>
+  </si>
+  <si>
+    <t>nemški lisec</t>
+  </si>
+  <si>
+    <t>PRODAMO OSLIČKA</t>
+  </si>
+  <si>
+    <t>250€</t>
+  </si>
+  <si>
+    <t>11 mesecev</t>
+  </si>
+  <si>
+    <t>Oslicek</t>
+  </si>
+  <si>
+    <t>29.3.2021</t>
+  </si>
+  <si>
+    <t>Osel Riko</t>
+  </si>
+  <si>
+    <t>Kupim oslice</t>
+  </si>
+  <si>
+    <t>Prodam osla in oslico</t>
+  </si>
+  <si>
+    <t>Osli.. Osliček in oslička</t>
+  </si>
+  <si>
+    <t>Mlad osel</t>
+  </si>
+  <si>
+    <t>Osel</t>
+  </si>
+  <si>
+    <t>Dalmatinska</t>
+  </si>
+  <si>
+    <t>280€</t>
+  </si>
+  <si>
+    <t>Osel, oslicek</t>
+  </si>
+  <si>
+    <t>220€</t>
+  </si>
+  <si>
+    <t>21.3.2021</t>
+  </si>
+  <si>
+    <t>NADU</t>
+  </si>
+  <si>
+    <t>KOKOŠI NESNICE - JARKICE, Ljutomer in Vransko</t>
+  </si>
+  <si>
+    <t>Tibaot</t>
+  </si>
+  <si>
+    <t>22.3.2021</t>
+  </si>
+  <si>
+    <t>Kokoši nesnice jarkice-rjave barve</t>
+  </si>
+  <si>
+    <t>Jarkive</t>
+  </si>
+  <si>
+    <t>7.7€</t>
+  </si>
+  <si>
+    <t>17.3.2021</t>
+  </si>
+  <si>
+    <t>JARKICE KOKOŠI NESNICE 21 TEDENSKE</t>
+  </si>
+  <si>
+    <t>Lochmann</t>
+  </si>
+  <si>
+    <t>7.5€</t>
+  </si>
+  <si>
+    <t>18 tednov</t>
+  </si>
+  <si>
+    <t>10.3.2021</t>
+  </si>
+  <si>
+    <t>KOKOŠI NESNICE STARE 22 TEDNOV</t>
+  </si>
+  <si>
+    <t>22 tednov</t>
+  </si>
+  <si>
+    <t>3.3.2021</t>
+  </si>
+  <si>
+    <t>Prodam par labodjih gosi</t>
+  </si>
+  <si>
+    <t>Prodam par orpington kokoši</t>
+  </si>
+  <si>
+    <t>Orpington</t>
+  </si>
+  <si>
+    <t>18 mesecev</t>
+  </si>
+  <si>
+    <t>Pasemske Brame 2+1- MB</t>
+  </si>
+  <si>
+    <t>Brame</t>
+  </si>
+  <si>
+    <t>prodamo pekinškega racmana</t>
+  </si>
+  <si>
+    <t>Pekinški</t>
+  </si>
+  <si>
+    <t>Na voljo 2 rački - MB</t>
+  </si>
+  <si>
+    <t>Čopasta</t>
+  </si>
+  <si>
+    <t>18€</t>
+  </si>
+  <si>
+    <t>Prašiči od 80kg do 120kg</t>
+  </si>
+  <si>
+    <t>BREJA SVINJA</t>
+  </si>
+  <si>
+    <t>PRAŠIČI 30 do 140kg</t>
+  </si>
+  <si>
+    <t>Dva zelo lepa mesnata pujska, linija 12, težka do 35 kg - prodamo</t>
+  </si>
+  <si>
+    <t>Prodam prašiča</t>
+  </si>
+  <si>
+    <t>PRODAM ODSTAVLJENO SVINJO</t>
+  </si>
+  <si>
+    <t>PRODAM PRAŠIČE MESNE PASME</t>
+  </si>
+  <si>
+    <t>Prašiči 100 kg</t>
+  </si>
+  <si>
+    <t>Prodam Prašiča 165kg</t>
+  </si>
+  <si>
+    <t>Prašič cca 165kg</t>
+  </si>
+  <si>
+    <t>1.8€</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,16 +2339,141 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1345,15 +2481,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+  <cellStyles count="19">
+    <cellStyle name="Accent" xfId="2" xr:uid="{1936DCCD-2474-441A-831C-16A87ACC0E16}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{C6709906-E571-4A38-B4A7-6C39A1B2AEFD}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{F375591B-49FC-4729-BB0C-A3FD680B5697}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{B68A2202-9AD0-4125-8B1A-9461A3796615}"/>
+    <cellStyle name="Bad 2" xfId="6" xr:uid="{D1B37460-C06F-4DBA-9D39-678F9C8CA15E}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{B7D84A12-0CF0-4282-B1A1-99A2A2B6E09D}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{0009AD1C-A479-46FB-8AA3-6888AFC02EB8}"/>
+    <cellStyle name="Good 2" xfId="9" xr:uid="{5F56FBDE-3DEA-4B13-8E25-EBE24E3EC268}"/>
+    <cellStyle name="Heading" xfId="10" xr:uid="{167BFEF5-E7FB-4F55-9A43-DC252ECBDC8C}"/>
+    <cellStyle name="Heading 1 2" xfId="11" xr:uid="{68E8C6CF-2358-46CF-B838-1003DACC5D47}"/>
+    <cellStyle name="Heading 2 2" xfId="12" xr:uid="{61C072D3-7B26-453F-A1F5-69250F46F41F}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{7A624621-ADCC-4438-861D-D2A2404C8FF0}"/>
+    <cellStyle name="Neutral 2" xfId="14" xr:uid="{1A08B66D-D7E2-4762-991E-C92999E08664}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{776A9885-9CDC-42E8-911D-BE00EC6BADF7}"/>
+    <cellStyle name="Note 2" xfId="15" xr:uid="{AA35166A-41B2-4BA8-AFDE-BDE9AB28FA9D}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{0E1BF779-0A23-401D-B795-2AD9EA1BD57D}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{D1F631DB-4583-44EC-BED2-574C618EC752}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{9EAFB5F7-260E-4915-9E7E-34F3A7CB88EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,9 +2561,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1409,7 +2601,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1515,7 +2707,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1665,25 +2857,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285B6280-2110-4D00-8806-CC84B3C977E6}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:N142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +2919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>6626831</v>
       </c>
@@ -1765,7 +2957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>6632606</v>
       </c>
@@ -1803,7 +2995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1293953</v>
       </c>
@@ -1841,7 +3033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>955219</v>
       </c>
@@ -1879,7 +3071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>601006</v>
       </c>
@@ -1917,7 +3109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>561656</v>
       </c>
@@ -1955,7 +3147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>3469311</v>
       </c>
@@ -1993,7 +3185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6626832</v>
       </c>
@@ -2034,7 +3226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3609480</v>
       </c>
@@ -2072,7 +3264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>6625753</v>
       </c>
@@ -2110,7 +3302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6633134</v>
       </c>
@@ -2151,7 +3343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>6633037</v>
       </c>
@@ -2189,7 +3381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>6391098</v>
       </c>
@@ -2230,7 +3422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>3285708</v>
       </c>
@@ -2274,7 +3466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>6626332</v>
       </c>
@@ -2318,7 +3510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>6625643</v>
       </c>
@@ -2356,7 +3548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>2470789</v>
       </c>
@@ -2400,7 +3592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>4036614</v>
       </c>
@@ -2438,7 +3630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>6570365</v>
       </c>
@@ -2482,7 +3674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>6618705</v>
       </c>
@@ -2526,7 +3718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>6633891</v>
       </c>
@@ -2570,7 +3762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>6429496</v>
       </c>
@@ -2614,7 +3806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>6631011</v>
       </c>
@@ -2655,7 +3847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>5536616</v>
       </c>
@@ -2696,7 +3888,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>6618499</v>
       </c>
@@ -2740,7 +3932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>1297141</v>
       </c>
@@ -2778,7 +3970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>6506895</v>
       </c>
@@ -2816,7 +4008,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>6475894</v>
       </c>
@@ -2857,7 +4049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>6569955</v>
       </c>
@@ -2901,7 +4093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>6563508</v>
       </c>
@@ -2945,7 +4137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>6609132</v>
       </c>
@@ -2986,7 +4178,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>6458850</v>
       </c>
@@ -3027,7 +4219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>6649387</v>
       </c>
@@ -3071,7 +4263,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>6649197</v>
       </c>
@@ -3115,7 +4307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>6649149</v>
       </c>
@@ -3153,7 +4345,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>6649050</v>
       </c>
@@ -3197,7 +4389,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>6648027</v>
       </c>
@@ -3241,7 +4433,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>6647616</v>
       </c>
@@ -3279,7 +4471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>6647507</v>
       </c>
@@ -3320,7 +4512,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>6647380</v>
       </c>
@@ -3361,7 +4553,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>5925479</v>
       </c>
@@ -3399,7 +4591,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>6649055</v>
       </c>
@@ -3440,7 +4632,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>6648859</v>
       </c>
@@ -3481,7 +4673,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>6647479</v>
       </c>
@@ -3519,7 +4711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>6647424</v>
       </c>
@@ -3557,7 +4749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>6646188</v>
       </c>
@@ -3592,7 +4784,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>122708</v>
       </c>
@@ -3630,7 +4822,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>906577</v>
       </c>
@@ -3668,7 +4860,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>6633320</v>
       </c>
@@ -3709,7 +4901,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>6391662</v>
       </c>
@@ -3747,7 +4939,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>6649537</v>
       </c>
@@ -3788,7 +4980,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>6649519</v>
       </c>
@@ -3829,7 +5021,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>6649515</v>
       </c>
@@ -3870,7 +5062,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>6649506</v>
       </c>
@@ -3911,7 +5103,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>6631561</v>
       </c>
@@ -3952,7 +5144,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>6625949</v>
       </c>
@@ -3993,7 +5185,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>6618053</v>
       </c>
@@ -4031,7 +5223,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>6618032</v>
       </c>
@@ -4072,7 +5264,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>6618013</v>
       </c>
@@ -4113,7 +5305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>6618005</v>
       </c>
@@ -4154,7 +5346,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>6649988</v>
       </c>
@@ -4198,7 +5390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>6649970</v>
       </c>
@@ -4242,7 +5434,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>6649739</v>
       </c>
@@ -4283,7 +5475,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>2696898</v>
       </c>
@@ -4327,7 +5519,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>6649373</v>
       </c>
@@ -4371,7 +5563,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>6649028</v>
       </c>
@@ -4409,7 +5601,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>6648957</v>
       </c>
@@ -4450,7 +5642,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>734973</v>
       </c>
@@ -4485,7 +5677,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>6648197</v>
       </c>
@@ -4520,7 +5712,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>5270030</v>
       </c>
@@ -4556,6 +5748,2464 @@
       </c>
       <c r="N77" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="5">
+        <v>6595803</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D78" s="5">
+        <v>17</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H78" s="5">
+        <v>4</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="5">
+        <v>6110754</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D79" s="5">
+        <v>17</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5">
+        <v>4</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="5">
+        <v>6608573</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D80" s="5">
+        <v>17</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H80" s="5">
+        <v>4</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="5">
+        <v>6650165</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D81" s="5">
+        <v>17</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H81" s="5">
+        <v>4</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="5">
+        <v>6649943</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D82" s="5">
+        <v>17</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="5">
+        <v>4</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="5">
+        <v>6649910</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D83" s="5">
+        <v>17</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H83" s="5">
+        <v>4</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="5">
+        <v>6649860</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D84" s="5">
+        <v>17</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H84" s="5">
+        <v>4</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="5">
+        <v>6649737</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D85" s="5">
+        <v>17</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="5">
+        <v>6649613</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5">
+        <v>17</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H86" s="5">
+        <v>4</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="5">
+        <v>6649611</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D87" s="5">
+        <v>17</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="H87" s="5">
+        <v>4</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="5">
+        <v>6697069</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5">
+        <v>18</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="H89" s="5">
+        <v>4</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="5">
+        <v>6697034</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D90" s="5">
+        <v>18</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5">
+        <v>4</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="5">
+        <v>6692505</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5">
+        <v>18</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="5">
+        <v>4</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="5">
+        <v>6690535</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D92" s="5">
+        <v>19</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5">
+        <v>4</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="5">
+        <v>6690503</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D93" s="5">
+        <v>19</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="5">
+        <v>4</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="5">
+        <v>327519</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5">
+        <v>19</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5">
+        <v>4</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="5">
+        <v>6689679</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5">
+        <v>19</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5">
+        <v>4</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="5">
+        <v>6684088</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D96" s="5">
+        <v>19</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H96" s="5">
+        <v>4</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="5">
+        <v>6683231</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5">
+        <v>19</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" s="5">
+        <v>4</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="5">
+        <v>6676688</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D98" s="5">
+        <v>19</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H98" s="5">
+        <v>4</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="5">
+        <v>4578335</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5">
+        <v>4</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="5">
+        <v>2788169</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5">
+        <v>20</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5">
+        <v>4</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="5">
+        <v>4222302</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5">
+        <v>20</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5">
+        <v>4</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="5">
+        <v>6346121</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5">
+        <v>20</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="5">
+        <v>4</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="5">
+        <v>6692121</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5">
+        <v>20</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5">
+        <v>4</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="5">
+        <v>6482947</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5">
+        <v>20</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" s="5">
+        <v>4</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="5">
+        <v>6690944</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="D106" s="5">
+        <v>20</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H106" s="5">
+        <v>4</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="5">
+        <v>6690856</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5">
+        <v>20</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5">
+        <v>4</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="5">
+        <v>3865933</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5">
+        <v>20</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5">
+        <v>4</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="5">
+        <v>6690070</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D109" s="5">
+        <v>20</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H109" s="5">
+        <v>4</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="5">
+        <v>6689758</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5">
+        <v>21</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H111" s="5">
+        <v>4</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="5">
+        <v>4609696</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5">
+        <v>21</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="H112" s="5">
+        <v>4</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="5">
+        <v>6655216</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5">
+        <v>21</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H113" s="5">
+        <v>4</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="5">
+        <v>6644808</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5">
+        <v>21</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="H114" s="5">
+        <v>4</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="5">
+        <v>3570282</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5">
+        <v>21</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5">
+        <v>4</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="5">
+        <v>6618689</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5">
+        <v>21</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5">
+        <v>4</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="5">
+        <v>6606652</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5">
+        <v>21</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H117" s="5">
+        <v>4</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="5">
+        <v>6606592</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5">
+        <v>21</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5">
+        <v>4</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="5">
+        <v>6606388</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D119" s="5">
+        <v>21</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H119" s="5">
+        <v>4</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="5">
+        <v>6583632</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5">
+        <v>21</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H120" s="5">
+        <v>4</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="5">
+        <v>6682506</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5">
+        <v>22</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H122" s="5">
+        <v>2</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="5">
+        <v>651863</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D123" s="5">
+        <v>23</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5">
+        <v>2</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="5">
+        <v>209961</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="D124" s="5">
+        <v>23</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5">
+        <v>2</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="5">
+        <v>6292142</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D125" s="5">
+        <v>23</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H125" s="5">
+        <v>2</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="5">
+        <v>6433834</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D126" s="5">
+        <v>23</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="H126" s="5">
+        <v>2</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="5">
+        <v>6716538</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5">
+        <v>24</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H127" s="5">
+        <v>2</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="5">
+        <v>6716334</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D128" s="5">
+        <v>23</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="H128" s="5">
+        <v>2</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="5">
+        <v>6713812</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D129" s="5">
+        <v>23</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5">
+        <v>2</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="5">
+        <v>4841822</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D130" s="5">
+        <v>25</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5">
+        <v>2</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="5">
+        <v>6700994</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D131" s="5">
+        <v>25</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5">
+        <v>2</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="5">
+        <v>6662861</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5">
+        <v>26</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5">
+        <v>4</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="5">
+        <v>6648887</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5">
+        <v>26</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5">
+        <v>4</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="5">
+        <v>6455800</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5">
+        <v>26</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5">
+        <v>4</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="N135" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="5">
+        <v>6697614</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5">
+        <v>26</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5">
+        <v>4</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="L136" s="5">
+        <v>30354</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="5">
+        <v>6692485</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5">
+        <v>26</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5">
+        <v>4</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="5">
+        <v>6692391</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5">
+        <v>26</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5">
+        <v>4</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="5">
+        <v>6692379</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5">
+        <v>26</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5">
+        <v>4</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="5">
+        <v>6465055</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5">
+        <v>26</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5">
+        <v>4</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="5">
+        <v>2626772</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5">
+        <v>26</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5">
+        <v>4</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="N141" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="5">
+        <v>2710409</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5">
+        <v>26</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5">
+        <v>4</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4565,21 +8215,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39C2B6-5B27-4FB8-9799-247FF17DE363}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A57" sqref="A57:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>276</v>
       </c>
@@ -4596,7 +8246,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4613,7 +8263,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +8277,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4641,7 +8291,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4658,7 +8308,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4675,7 +8325,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4689,7 +8339,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -4706,7 +8356,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4723,7 +8373,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -4740,7 +8390,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -4757,7 +8407,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -4774,7 +8424,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -4791,7 +8441,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -4808,7 +8458,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -4825,7 +8475,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4842,7 +8492,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -4859,7 +8509,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -4876,7 +8526,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -4893,7 +8543,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -4910,7 +8560,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -4927,7 +8577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -4944,7 +8594,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -4961,7 +8611,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -4978,7 +8628,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -4995,7 +8645,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -5012,7 +8662,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5029,7 +8679,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -5046,7 +8696,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5063,7 +8713,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -5080,7 +8730,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -5097,7 +8747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -5114,7 +8764,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -5131,7 +8781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -5148,7 +8798,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -5162,7 +8812,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -5179,7 +8829,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -5196,7 +8846,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -5213,7 +8863,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -5230,7 +8880,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>192</v>
       </c>
@@ -5247,7 +8897,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>196</v>
       </c>
@@ -5264,7 +8914,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -5281,7 +8931,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -5298,7 +8948,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -5312,7 +8962,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -5326,7 +8976,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -5343,7 +8993,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>226</v>
       </c>
@@ -5357,7 +9007,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -5374,7 +9024,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -5391,7 +9041,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -5408,7 +9058,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>255</v>
       </c>
@@ -5425,7 +9075,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -5442,7 +9092,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>263</v>
       </c>
@@ -5459,7 +9109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -5476,7 +9126,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -5493,7 +9143,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -5508,6 +9158,924 @@
       </c>
       <c r="E56" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4">
+        <v>30354</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5517,19 +10085,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25527937-A942-4971-B6D5-00975D6605D4}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A18" sqref="A18:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -5543,7 +10111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5557,7 +10125,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5571,7 +10139,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5585,7 +10153,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5596,7 +10164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5607,7 +10175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5621,7 +10189,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5632,7 +10200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5646,7 +10214,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5657,7 +10225,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5668,7 +10236,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5679,7 +10247,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5693,7 +10261,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5704,7 +10272,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5718,7 +10286,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5729,7 +10297,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5741,6 +10309,116 @@
       </c>
       <c r="D17" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5750,18 +10428,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B809F6-C8BE-4882-AFE4-FFDFFD63ADBB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>411</v>
       </c>
@@ -5769,7 +10448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>412</v>
       </c>
@@ -5777,7 +10456,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -5785,12 +10464,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -5798,7 +10477,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -5806,7 +10485,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -5814,12 +10493,42 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5829,21 +10538,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A3101C-8BBD-480E-9B26-24D063DD84B0}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5857,7 +10566,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5871,7 +10580,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -5885,7 +10594,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5899,7 +10608,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5913,7 +10622,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -5927,7 +10636,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>423</v>
       </c>
@@ -5941,7 +10650,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -5955,7 +10664,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -5969,7 +10678,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -5983,7 +10692,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -5997,7 +10706,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -6011,7 +10720,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -6025,7 +10734,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -6039,7 +10748,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -6053,7 +10762,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -6067,7 +10776,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -6081,7 +10790,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -6095,7 +10804,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -6109,7 +10818,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -6123,7 +10832,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6137,7 +10846,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -6151,7 +10860,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -6165,7 +10874,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -6179,7 +10888,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -6193,7 +10902,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -6207,7 +10916,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -6221,7 +10930,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>354</v>
       </c>
@@ -6235,7 +10944,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -6249,7 +10958,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -6263,7 +10972,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -6277,7 +10986,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>193</v>
       </c>
@@ -6291,7 +11000,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>197</v>
       </c>
@@ -6305,7 +11014,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -6319,7 +11028,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>209</v>
       </c>
@@ -6333,7 +11042,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>220</v>
       </c>
@@ -6347,7 +11056,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -6361,7 +11070,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -6375,7 +11084,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -6389,7 +11098,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -6403,7 +11112,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -6417,7 +11126,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -6431,7 +11140,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -6445,7 +11154,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>269</v>
       </c>
@@ -6459,7 +11168,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>273</v>
       </c>
@@ -6470,6 +11179,636 @@
         <v>286</v>
       </c>
       <c r="D45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1270</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3261</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1336</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8210</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B50" s="2">
+        <v>8259</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2364</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1380</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8340</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3205</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4207</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8255</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8310</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2230</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2232</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9265</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1251</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3342</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="2">
+        <v>8213</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B65" s="2">
+        <v>8281</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4205</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8341</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6230</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2327</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8290</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2281</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4240</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1338</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B74" s="2">
+        <v>8330</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3254</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8270</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3250</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1296</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3210</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="2">
+        <v>9240</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2205</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2282</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5270</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2241</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B86" s="2">
+        <v>8274</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B87" s="2">
+        <v>9244</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3231</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2232</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8258</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>422</v>
       </c>
     </row>

--- a/Baza_Projekt.xlsx
+++ b/Baza_Projekt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="866">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1469,15 +1469,27 @@
     <t xml:space="preserve">telefon</t>
   </si>
   <si>
+    <t xml:space="preserve">geslo</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 69 732 315</t>
   </si>
   <si>
+    <t xml:space="preserve">njksdu</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.10.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">pops</t>
+  </si>
+  <si>
     <t xml:space="preserve">31.3.2014</t>
   </si>
   <si>
+    <t xml:space="preserve">kskla</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 558 877</t>
   </si>
   <si>
@@ -1490,33 +1502,51 @@
     <t xml:space="preserve">6.3.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">eiojjjjj</t>
+  </si>
+  <si>
     <t xml:space="preserve">20.6.2017</t>
   </si>
   <si>
+    <t xml:space="preserve">banana</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 641 240</t>
   </si>
   <si>
     <t xml:space="preserve">30.10.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">čokolada</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 205 642</t>
   </si>
   <si>
     <t xml:space="preserve">2.7.2010</t>
   </si>
   <si>
+    <t xml:space="preserve">euijs</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 903 189</t>
   </si>
   <si>
     <t xml:space="preserve">18.11.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">njkl</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 589 683</t>
   </si>
   <si>
     <t xml:space="preserve">16.6.2004</t>
   </si>
   <si>
+    <t xml:space="preserve">r789</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 474 181</t>
   </si>
   <si>
@@ -1529,135 +1559,207 @@
     <t xml:space="preserve">3.5.2009</t>
   </si>
   <si>
+    <t xml:space="preserve">asdfghjklčćž</t>
+  </si>
+  <si>
     <t xml:space="preserve">070 214 655</t>
   </si>
   <si>
     <t xml:space="preserve">7.9.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">qwertzuiop</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 656 463</t>
   </si>
   <si>
     <t xml:space="preserve">10.3.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">sd56</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 650 727</t>
   </si>
   <si>
     <t xml:space="preserve">10.6.2003</t>
   </si>
   <si>
+    <t xml:space="preserve">ds456c</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 906 699</t>
   </si>
   <si>
     <t xml:space="preserve">25.6.2014</t>
   </si>
   <si>
+    <t xml:space="preserve">dasd7ew864</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 754 838</t>
   </si>
   <si>
     <t xml:space="preserve">12.3.2010</t>
   </si>
   <si>
+    <t xml:space="preserve">wq53s</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 648 332</t>
   </si>
   <si>
     <t xml:space="preserve">16.11.2010</t>
   </si>
   <si>
+    <t xml:space="preserve">sad12</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 30 735 404</t>
   </si>
   <si>
+    <t xml:space="preserve">eqw8564</t>
+  </si>
+  <si>
     <t xml:space="preserve">070 556 894</t>
   </si>
   <si>
     <t xml:space="preserve">5.6.2017</t>
   </si>
   <si>
+    <t xml:space="preserve">sx45</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 439 792</t>
   </si>
   <si>
     <t xml:space="preserve">28.1.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">sd123</t>
+  </si>
+  <si>
     <t xml:space="preserve">+385 99 6384199</t>
   </si>
   <si>
     <t xml:space="preserve">20.6.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">sd475</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 391 776</t>
   </si>
   <si>
     <t xml:space="preserve">29.11.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">wsxs86468</t>
+  </si>
+  <si>
     <t xml:space="preserve">+385 95 5171744</t>
   </si>
   <si>
     <t xml:space="preserve">9.10.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">sd15656</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 662 229</t>
   </si>
   <si>
     <t xml:space="preserve">30.12.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">cy154786</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 515 822</t>
   </si>
   <si>
     <t xml:space="preserve">26.8.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">c15684816</t>
+  </si>
+  <si>
     <t xml:space="preserve">+385 92 1590734</t>
   </si>
   <si>
     <t xml:space="preserve">19.6.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">sc15648615</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 791 607</t>
   </si>
   <si>
     <t xml:space="preserve">14.8.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">8552sasf</t>
+  </si>
+  <si>
     <t xml:space="preserve">070 105 162</t>
   </si>
   <si>
     <t xml:space="preserve">7.12.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">56151was</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 70 850 790</t>
   </si>
   <si>
+    <t xml:space="preserve">1526465as</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 760 095</t>
   </si>
   <si>
     <t xml:space="preserve">11.8.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">264564456as</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 454 266</t>
   </si>
   <si>
     <t xml:space="preserve">13.2.2010</t>
   </si>
   <si>
+    <t xml:space="preserve">156156156g156tg</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 749 664</t>
   </si>
   <si>
     <t xml:space="preserve">14.5.2009</t>
   </si>
   <si>
+    <t xml:space="preserve">156464trhtj</t>
+  </si>
+  <si>
     <t xml:space="preserve">28.2.2006</t>
   </si>
   <si>
+    <t xml:space="preserve">153456fgssfsdd</t>
+  </si>
+  <si>
     <t xml:space="preserve">040 818 992</t>
   </si>
   <si>
     <t xml:space="preserve">8.1.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">5153sdgs1g53</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 40 745 224</t>
   </si>
   <si>
@@ -1667,60 +1769,96 @@
     <t xml:space="preserve">Laze v Tuhinju</t>
   </si>
   <si>
+    <t xml:space="preserve">5g15sfg5sg53</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 22 284 978</t>
   </si>
   <si>
     <t xml:space="preserve">5.5.2014</t>
   </si>
   <si>
+    <t xml:space="preserve">dg2sg2sg23</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 868 082</t>
   </si>
   <si>
     <t xml:space="preserve">8.4.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">78afsf12s</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 30 370 630</t>
   </si>
   <si>
     <t xml:space="preserve">16.9.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">123vx23</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 40 360 860</t>
   </si>
   <si>
     <t xml:space="preserve">28.1.2001</t>
   </si>
   <si>
+    <t xml:space="preserve">ydc2c</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 51 423 983</t>
   </si>
   <si>
     <t xml:space="preserve">26.1.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">ae86sdf4</t>
+  </si>
+  <si>
     <t xml:space="preserve">051 666 056</t>
   </si>
   <si>
     <t xml:space="preserve">8.11.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">vsdv</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.5.2005</t>
   </si>
   <si>
+    <t xml:space="preserve">cd456sdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.1.2017</t>
   </si>
   <si>
+    <t xml:space="preserve">f456df456df</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 70 302 282</t>
   </si>
   <si>
+    <t xml:space="preserve">f56af46dfžas123</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.7.2013</t>
   </si>
   <si>
+    <t xml:space="preserve">c153xc453đ</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 784 447</t>
   </si>
   <si>
     <t xml:space="preserve">4.9.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">sdf4</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 841 459</t>
   </si>
   <si>
@@ -1730,117 +1868,177 @@
     <t xml:space="preserve">Destrnik</t>
   </si>
   <si>
+    <t xml:space="preserve">123yd</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 343 048</t>
   </si>
   <si>
     <t xml:space="preserve">23.8.2010</t>
   </si>
   <si>
+    <t xml:space="preserve">155fsdfsd</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 850 566</t>
   </si>
   <si>
     <t xml:space="preserve">11.8.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">15867/89d</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 484 852</t>
   </si>
   <si>
     <t xml:space="preserve">18.11.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">45615123sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 858 913</t>
   </si>
   <si>
     <t xml:space="preserve">6.12.2008</t>
   </si>
   <si>
+    <t xml:space="preserve">789dfg123f786</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 633 517</t>
   </si>
   <si>
     <t xml:space="preserve">6.10.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">153fv86f</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 393 234</t>
   </si>
   <si>
     <t xml:space="preserve">18.6.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">xv153f</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 371 734</t>
   </si>
   <si>
     <t xml:space="preserve">4.11.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">xvd13sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">040 756 807</t>
   </si>
   <si>
     <t xml:space="preserve">30.4.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">1dfg</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 518 648</t>
   </si>
   <si>
     <t xml:space="preserve">10.6.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">92drg</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 866 556</t>
   </si>
   <si>
+    <t xml:space="preserve">56df</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 834 773</t>
   </si>
   <si>
     <t xml:space="preserve">22.5.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">5852v</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 618 837</t>
   </si>
   <si>
     <t xml:space="preserve">26.3.2013</t>
   </si>
   <si>
+    <t xml:space="preserve">156d</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 486 076</t>
   </si>
   <si>
     <t xml:space="preserve">15.4.2013</t>
   </si>
   <si>
+    <t xml:space="preserve">1565cd</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 40 256 966</t>
   </si>
   <si>
     <t xml:space="preserve">23.1.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">156wd</t>
+  </si>
+  <si>
     <t xml:space="preserve">068 681 769</t>
   </si>
   <si>
     <t xml:space="preserve">17.3.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">15uj</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 538 651</t>
   </si>
   <si>
     <t xml:space="preserve">3.8.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">48654l</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 417 221</t>
   </si>
   <si>
     <t xml:space="preserve">13.11.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">1556uiuizu</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 30 758 788</t>
   </si>
   <si>
     <t xml:space="preserve">18.1.2014</t>
   </si>
   <si>
+    <t xml:space="preserve">156adsc</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 51 612 456</t>
   </si>
   <si>
     <t xml:space="preserve">7.12.2004</t>
   </si>
   <si>
+    <t xml:space="preserve">145dfnnzjt</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 70 621 316</t>
   </si>
   <si>
@@ -1853,6 +2051,9 @@
     <t xml:space="preserve">22.6.2008</t>
   </si>
   <si>
+    <t xml:space="preserve">25686-4864</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 902 294</t>
   </si>
   <si>
@@ -1862,24 +2063,36 @@
     <t xml:space="preserve">Novo mesto</t>
   </si>
   <si>
+    <t xml:space="preserve">46dswd6</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 299 737</t>
   </si>
   <si>
     <t xml:space="preserve">20.1.2013</t>
   </si>
   <si>
+    <t xml:space="preserve">Sccsfrfd-ssd</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 340 446</t>
   </si>
   <si>
     <t xml:space="preserve">19.1.2011</t>
   </si>
   <si>
+    <t xml:space="preserve">-sdsd-</t>
+  </si>
+  <si>
     <t xml:space="preserve"> +386 51 651 887</t>
   </si>
   <si>
     <t xml:space="preserve">25.8.2005</t>
   </si>
   <si>
+    <t xml:space="preserve">-ddsfssdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 430 315</t>
   </si>
   <si>
@@ -1892,12 +2105,18 @@
     <t xml:space="preserve">31.5.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">486sdf4sdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 651 085</t>
   </si>
   <si>
     <t xml:space="preserve">27.4.2017</t>
   </si>
   <si>
+    <t xml:space="preserve">456sdf456sdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 725 885</t>
   </si>
   <si>
@@ -1907,193 +2126,292 @@
     <t xml:space="preserve">Veliki gaber</t>
   </si>
   <si>
+    <t xml:space="preserve">456fsdf3</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 768 593</t>
   </si>
   <si>
     <t xml:space="preserve">26.9.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">15sd123</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 68 157 866</t>
   </si>
   <si>
     <t xml:space="preserve">4.10.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">51sdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">040 655 449</t>
   </si>
   <si>
     <t xml:space="preserve">13.12.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">12d</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 40 854 196</t>
   </si>
   <si>
     <t xml:space="preserve">13.8.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">2sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 70 754 808</t>
   </si>
   <si>
     <t xml:space="preserve">17.3.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">12sfd</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 554 238</t>
   </si>
   <si>
     <t xml:space="preserve">30.7.2014</t>
   </si>
   <si>
+    <t xml:space="preserve">12tz</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 667 996</t>
   </si>
   <si>
     <t xml:space="preserve">29.1.2008</t>
   </si>
   <si>
+    <t xml:space="preserve">465k</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 51 424 600</t>
   </si>
   <si>
     <t xml:space="preserve">13.2.2017</t>
   </si>
   <si>
+    <t xml:space="preserve">45kuh</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 795 846</t>
   </si>
   <si>
     <t xml:space="preserve">14.1.2013</t>
   </si>
   <si>
+    <t xml:space="preserve">8ae</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 626 670</t>
   </si>
   <si>
     <t xml:space="preserve">28.11.2012</t>
   </si>
   <si>
+    <t xml:space="preserve">879tz</t>
+  </si>
+  <si>
     <t xml:space="preserve">069 631 836</t>
   </si>
   <si>
     <t xml:space="preserve">3.6.2017</t>
   </si>
   <si>
+    <t xml:space="preserve">456ysf</t>
+  </si>
+  <si>
     <t xml:space="preserve">040 888 200</t>
   </si>
   <si>
     <t xml:space="preserve">7.4.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">44cs</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 672 401</t>
   </si>
   <si>
     <t xml:space="preserve">15.10.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">dff46</t>
+  </si>
+  <si>
     <t xml:space="preserve">040 502 301</t>
   </si>
   <si>
     <t xml:space="preserve">12.6.2012</t>
   </si>
   <si>
+    <t xml:space="preserve">dcddf456</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 552 580</t>
   </si>
   <si>
+    <t xml:space="preserve">fdfg786dfv</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 40 435 269</t>
   </si>
   <si>
     <t xml:space="preserve">18.3.2007</t>
   </si>
   <si>
+    <t xml:space="preserve">dfvfvd52</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 326 554</t>
   </si>
   <si>
     <t xml:space="preserve">9.6.2009</t>
   </si>
   <si>
+    <t xml:space="preserve">fd185sdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 25 821 401</t>
   </si>
   <si>
     <t xml:space="preserve">9.5.2012</t>
   </si>
   <si>
+    <t xml:space="preserve">56hng</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 70 545 481</t>
   </si>
   <si>
     <t xml:space="preserve">30.5.2012</t>
   </si>
   <si>
+    <t xml:space="preserve">kz864</t>
+  </si>
+  <si>
     <t xml:space="preserve">040 531 246</t>
   </si>
   <si>
     <t xml:space="preserve">16.2.2015</t>
   </si>
   <si>
+    <t xml:space="preserve">g55464</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 428 644</t>
   </si>
   <si>
     <t xml:space="preserve">18.3.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">nkz12</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 40 843 252</t>
   </si>
   <si>
     <t xml:space="preserve">7.7.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">x84</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 51 602 791</t>
   </si>
   <si>
     <t xml:space="preserve">5.12.2010</t>
   </si>
   <si>
+    <t xml:space="preserve">xew486</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 797 052</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.2019</t>
   </si>
   <si>
+    <t xml:space="preserve">wexe56</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 541 900</t>
   </si>
   <si>
     <t xml:space="preserve">29.6.2012</t>
   </si>
   <si>
+    <t xml:space="preserve">xexw531</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 721 138</t>
   </si>
   <si>
     <t xml:space="preserve">13.12.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">xwew5</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 354 805</t>
   </si>
   <si>
     <t xml:space="preserve">5.5.2008</t>
   </si>
   <si>
+    <t xml:space="preserve">xe5</t>
+  </si>
+  <si>
     <t xml:space="preserve">041-817-296</t>
   </si>
   <si>
     <t xml:space="preserve">18.2.2013</t>
   </si>
   <si>
+    <t xml:space="preserve">wwxe45</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 31 686 354</t>
   </si>
   <si>
     <t xml:space="preserve">22.3.2008</t>
   </si>
   <si>
+    <t xml:space="preserve">xccccd456</t>
+  </si>
+  <si>
     <t xml:space="preserve">041 228 773</t>
   </si>
   <si>
     <t xml:space="preserve">19.1.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">wcdcdcd45</t>
+  </si>
+  <si>
     <t xml:space="preserve">031 274 030</t>
   </si>
   <si>
     <t xml:space="preserve">11.3.2018</t>
   </si>
   <si>
+    <t xml:space="preserve">ccece45</t>
+  </si>
+  <si>
     <t xml:space="preserve">+386 41 843 199</t>
   </si>
   <si>
     <t xml:space="preserve">20.10.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdwcdwcdwcd456</t>
   </si>
   <si>
     <t xml:space="preserve">nadkategorija</t>
@@ -2409,7 +2727,7 @@
   <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q19" activeCellId="1" sqref="E:E Q19"/>
+      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7292,10 +7610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E:E"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F79" activeCellId="0" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7304,7 +7622,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,19 +7639,25 @@
       <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7340,10 +7665,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,10 +7679,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,13 +7693,16 @@
         <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4562</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,13 +7710,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,10 +7727,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,13 +7741,16 @@
         <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,13 +7758,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,13 +7775,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,13 +7792,16 @@
         <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>63</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,13 +7809,16 @@
         <v>67</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>68</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>123456</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,13 +7826,16 @@
         <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,13 +7843,16 @@
         <v>77</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>78</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,13 +7860,16 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7513,13 +7877,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,13 +7894,16 @@
         <v>87</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>88</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,13 +7911,16 @@
         <v>92</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,13 +7928,16 @@
         <v>98</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>99</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,13 +7945,16 @@
         <v>104</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,13 +7962,16 @@
         <v>107</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,13 +7979,16 @@
         <v>109</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>110</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,13 +7996,16 @@
         <v>114</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>115</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,13 +8013,16 @@
         <v>118</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>119</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,13 +8030,16 @@
         <v>124</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>125</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,13 +8047,16 @@
         <v>128</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>129</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,13 +8064,16 @@
         <v>132</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,13 +8081,16 @@
         <v>137</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>138</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,13 +8098,16 @@
         <v>143</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,13 +8115,16 @@
         <v>146</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>147</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7723,13 +8132,16 @@
         <v>149</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,13 +8149,16 @@
         <v>152</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>153</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,13 +8166,16 @@
         <v>158</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,13 +8183,16 @@
         <v>161</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,10 +8200,13 @@
         <v>165</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>166</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,13 +8214,16 @@
         <v>169</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>170</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,13 +8231,16 @@
         <v>174</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>546</v>
+        <v>580</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,13 +8248,16 @@
         <v>178</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>179</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7832,13 +8265,16 @@
         <v>185</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>186</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7846,13 +8282,16 @@
         <v>188</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>189</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7860,13 +8299,16 @@
         <v>192</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>193</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,13 +8316,16 @@
         <v>196</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>153</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7888,13 +8333,16 @@
         <v>199</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>200</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,10 +8350,13 @@
         <v>204</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>205</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,10 +8364,13 @@
         <v>214</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>215</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,13 +8378,16 @@
         <v>217</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,10 +8395,13 @@
         <v>221</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>222</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,13 +8409,16 @@
         <v>237</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>238</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,13 +8426,16 @@
         <v>243</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>565</v>
+        <v>611</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>566</v>
+        <v>612</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>567</v>
+        <v>613</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7977,13 +8443,16 @@
         <v>246</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>175</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7991,13 +8460,16 @@
         <v>249</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>250</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,13 +8477,16 @@
         <v>252</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>253</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8019,13 +8494,16 @@
         <v>257</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>153</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8033,13 +8511,16 @@
         <v>259</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>260</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,13 +8528,16 @@
         <v>262</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>263</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,13 +8545,16 @@
         <v>266</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>267</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8075,13 +8562,16 @@
         <v>272</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,13 +8579,16 @@
         <v>275</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>276</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8103,13 +8596,16 @@
         <v>280</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>586</v>
+        <v>642</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>281</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,13 +8613,16 @@
         <v>284</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>285</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8131,13 +8630,16 @@
         <v>289</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>290</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8145,13 +8647,16 @@
         <v>294</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>295</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,13 +8664,16 @@
         <v>299</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>300</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,13 +8681,16 @@
         <v>304</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>595</v>
+        <v>656</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8187,13 +8698,16 @@
         <v>307</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8201,13 +8715,16 @@
         <v>311</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>599</v>
+        <v>662</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>600</v>
+        <v>663</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8215,13 +8732,16 @@
         <v>315</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>601</v>
+        <v>665</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>316</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,13 +8749,16 @@
         <v>319</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>604</v>
+        <v>669</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>320</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,13 +8766,16 @@
         <v>324</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>325</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1561658</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,13 +8783,16 @@
         <v>329</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>330</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8271,13 +8800,16 @@
         <v>334</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>611</v>
+        <v>678</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8285,13 +8817,16 @@
         <v>338</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>613</v>
+        <v>681</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>473</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,13 +8834,16 @@
         <v>344</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>345</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,13 +8851,16 @@
         <v>347</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>348</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,13 +8868,16 @@
         <v>351</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>316</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>156486</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8341,13 +8885,16 @@
         <v>354</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>355</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8355,13 +8902,16 @@
         <v>357</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>325</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,13 +8919,16 @@
         <v>359</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>626</v>
+        <v>699</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,13 +8936,16 @@
         <v>362</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>363</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,13 +8953,16 @@
         <v>365</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>366</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8411,13 +8970,16 @@
         <v>369</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>370</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,13 +8987,16 @@
         <v>373</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,13 +9004,16 @@
         <v>375</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>376</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,13 +9021,16 @@
         <v>379</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,13 +9038,16 @@
         <v>381</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>382</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,13 +9055,16 @@
         <v>385</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>386</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8495,13 +9072,16 @@
         <v>389</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>205</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8509,13 +9089,16 @@
         <v>391</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>392</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8523,13 +9106,16 @@
         <v>394</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>395</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,13 +9123,16 @@
         <v>397</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>650</v>
+        <v>735</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>398</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8551,13 +9140,16 @@
         <v>400</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>651</v>
+        <v>737</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>652</v>
+        <v>738</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>401</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,13 +9157,16 @@
         <v>403</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>404</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8579,13 +9174,16 @@
         <v>408</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>409</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8593,13 +9191,16 @@
         <v>413</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>656</v>
+        <v>745</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>414</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8607,13 +9208,16 @@
         <v>416</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>417</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8621,13 +9225,16 @@
         <v>421</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>660</v>
+        <v>751</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>661</v>
+        <v>752</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8635,13 +9242,16 @@
         <v>426</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>662</v>
+        <v>754</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>663</v>
+        <v>755</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>427</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8649,13 +9259,16 @@
         <v>433</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>434</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8663,13 +9276,16 @@
         <v>438</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>666</v>
+        <v>760</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>439</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,13 +9293,16 @@
         <v>441</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>668</v>
+        <v>763</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>669</v>
+        <v>764</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>442</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8691,13 +9310,16 @@
         <v>448</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>670</v>
+        <v>766</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>671</v>
+        <v>767</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>449</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8705,13 +9327,16 @@
         <v>452</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>673</v>
+        <v>770</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>205</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,13 +9344,16 @@
         <v>457</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>674</v>
+        <v>772</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>675</v>
+        <v>773</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>458</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8733,13 +9361,16 @@
         <v>460</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>676</v>
+        <v>775</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>115</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,13 +9378,16 @@
         <v>462</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>678</v>
+        <v>778</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>679</v>
+        <v>779</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>463</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8761,13 +9395,16 @@
         <v>30354</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>680</v>
+        <v>781</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,13 +9412,16 @@
         <v>466</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>682</v>
+        <v>784</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>244</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,13 +9429,16 @@
         <v>468</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>685</v>
+        <v>788</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>469</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,13 +9446,16 @@
         <v>472</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>473</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8817,13 +9463,16 @@
         <v>475</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>688</v>
+        <v>793</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>689</v>
+        <v>794</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>476</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -8845,7 +9494,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="E:E C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8864,7 +9513,7 @@
         <v>479</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>690</v>
+        <v>796</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -8875,13 +9524,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>691</v>
+        <v>797</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>693</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,13 +9538,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8903,13 +9552,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>696</v>
+        <v>802</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>698</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,7 +9569,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8931,7 +9580,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,10 +9591,10 @@
         <v>86</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>699</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,10 +9602,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>700</v>
+        <v>806</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8964,13 +9613,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>702</v>
+        <v>808</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>704</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,10 +9627,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>706</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8992,7 +9641,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>706</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9000,10 +9649,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>707</v>
+        <v>813</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>706</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9011,13 +9660,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>708</v>
+        <v>814</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>709</v>
+        <v>815</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>710</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9025,10 +9674,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>711</v>
+        <v>817</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>709</v>
+        <v>815</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,13 +9685,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>709</v>
+        <v>815</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9050,10 +9699,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>712</v>
+        <v>818</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>713</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,13 +9710,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>714</v>
+        <v>820</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>713</v>
+        <v>819</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>715</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9075,10 +9724,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>716</v>
+        <v>822</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>717</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9089,10 +9738,10 @@
         <v>336</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>718</v>
+        <v>824</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>719</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9100,13 +9749,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>720</v>
+        <v>826</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>718</v>
+        <v>824</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>721</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9120,7 +9769,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>722</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,10 +9777,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>723</v>
+        <v>829</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>724</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9139,13 +9788,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>727</v>
+        <v>833</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9153,10 +9802,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>728</v>
+        <v>834</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9164,13 +9813,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>729</v>
+        <v>835</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>730</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,10 +9827,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>731</v>
+        <v>837</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,13 +9838,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>732</v>
+        <v>838</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>733</v>
+        <v>839</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>734</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -9217,7 +9866,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="E:E A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9237,65 +9886,65 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>735</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>736</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>737</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>706</v>
+        <v>812</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>738</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>709</v>
+        <v>815</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>739</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>713</v>
+        <v>819</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>740</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>717</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>718</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,25 +9952,25 @@
         <v>79</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>741</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>724</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>742</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>733</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -9343,7 +9992,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="1" sqref="E:E A43"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9360,13 +10009,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>743</v>
+        <v>849</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>744</v>
+        <v>850</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>745</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9377,10 +10026,10 @@
         <v>1352</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,10 +10040,10 @@
         <v>2327</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,10 +10054,10 @@
         <v>1000</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9419,10 +10068,10 @@
         <v>3270</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9433,10 +10082,10 @@
         <v>3320</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9447,10 +10096,10 @@
         <v>1295</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9461,10 +10110,10 @@
         <v>1215</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9475,10 +10124,10 @@
         <v>2000</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,10 +10138,10 @@
         <v>3240</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9503,10 +10152,10 @@
         <v>2310</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9517,10 +10166,10 @@
         <v>4220</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9531,10 +10180,10 @@
         <v>3305</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9545,10 +10194,10 @@
         <v>2213</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9559,10 +10208,10 @@
         <v>9240</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,10 +10222,10 @@
         <v>5280</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>752</v>
+        <v>858</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,10 +10236,10 @@
         <v>3290</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>753</v>
+        <v>859</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9601,10 +10250,10 @@
         <v>48260</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9615,10 +10264,10 @@
         <v>2289</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9629,10 +10278,10 @@
         <v>48000</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9643,10 +10292,10 @@
         <v>4270</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,10 +10306,10 @@
         <v>35000</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>756</v>
+        <v>862</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9671,10 +10320,10 @@
         <v>2270</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9685,10 +10334,10 @@
         <v>3000</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9699,10 +10348,10 @@
         <v>3212</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9713,10 +10362,10 @@
         <v>1292</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9727,24 +10376,24 @@
         <v>2201</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9755,10 +10404,10 @@
         <v>1241</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9769,10 +10418,10 @@
         <v>2351</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9783,10 +10432,10 @@
         <v>2393</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>753</v>
+        <v>859</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,10 +10446,10 @@
         <v>3214</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,10 +10460,10 @@
         <v>4276</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9825,10 +10474,10 @@
         <v>1290</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9839,10 +10488,10 @@
         <v>3230</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,10 +10502,10 @@
         <v>9250</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,10 +10516,10 @@
         <v>3341</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9881,24 +10530,24 @@
         <v>4228</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>567</v>
+        <v>613</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2253</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9909,10 +10558,10 @@
         <v>2250</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9923,10 +10572,10 @@
         <v>5274</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>752</v>
+        <v>858</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9937,10 +10586,10 @@
         <v>2288</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9951,10 +10600,10 @@
         <v>8310</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9965,10 +10614,10 @@
         <v>3211</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,10 +10628,10 @@
         <v>2311</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,10 +10642,10 @@
         <v>1270</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,10 +10656,10 @@
         <v>3261</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10021,10 +10670,10 @@
         <v>1336</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10035,10 +10684,10 @@
         <v>8210</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,10 +10698,10 @@
         <v>8259</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10063,10 +10712,10 @@
         <v>2364</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>753</v>
+        <v>859</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10077,10 +10726,10 @@
         <v>1380</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>759</v>
+        <v>865</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,10 +10740,10 @@
         <v>8340</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,10 +10754,10 @@
         <v>3205</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10119,10 +10768,10 @@
         <v>4207</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,24 +10782,24 @@
         <v>8255</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>8000</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,10 +10810,10 @@
         <v>2230</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10175,10 +10824,10 @@
         <v>2232</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,10 +10838,10 @@
         <v>9265</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,10 +10852,10 @@
         <v>1251</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10217,24 +10866,24 @@
         <v>3342</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>8213</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10245,10 +10894,10 @@
         <v>8281</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10259,10 +10908,10 @@
         <v>4205</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10273,10 +10922,10 @@
         <v>8341</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10287,10 +10936,10 @@
         <v>6230</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>759</v>
+        <v>865</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,10 +10950,10 @@
         <v>8290</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,10 +10964,10 @@
         <v>2281</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,10 +10978,10 @@
         <v>4240</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10343,10 +10992,10 @@
         <v>1338</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,10 +11006,10 @@
         <v>8330</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10371,10 +11020,10 @@
         <v>3254</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10385,10 +11034,10 @@
         <v>8270</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,10 +11048,10 @@
         <v>3250</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,10 +11062,10 @@
         <v>1296</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10427,10 +11076,10 @@
         <v>3210</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10441,10 +11090,10 @@
         <v>4000</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10455,10 +11104,10 @@
         <v>2205</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10469,10 +11118,10 @@
         <v>2282</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10483,10 +11132,10 @@
         <v>5270</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>752</v>
+        <v>858</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10497,10 +11146,10 @@
         <v>2241</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10511,10 +11160,10 @@
         <v>8274</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10525,10 +11174,10 @@
         <v>9244</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10539,10 +11188,10 @@
         <v>3231</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10553,10 +11202,10 @@
         <v>8258</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
